--- a/biology/Zoologie/Euparyphium_melis/Euparyphium_melis.xlsx
+++ b/biology/Zoologie/Euparyphium_melis/Euparyphium_melis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euparyphium melis est un trématode de la famille des Echinostomatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Hôtes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euparyphium melis est connue pour parasiter le chien et le chat[1]. Il infecte également les petits mammifères prédateurs comme le Renard roux (Vulpes vulpes)[2], le Raton laveur (Procyon lotor)[3] ou le Vison d'Europe (Mustela lutreola)[4]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euparyphium melis est connue pour parasiter le chien et le chat. Il infecte également les petits mammifères prédateurs comme le Renard roux (Vulpes vulpes), le Raton laveur (Procyon lotor) ou le Vison d'Europe (Mustela lutreola)
 </t>
         </is>
       </c>
